--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_3ПКС-120\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29035AB4-5F4A-496C-987A-82F8738646AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65111CEE-1F8B-4DFA-9D34-94EB647B3A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,12 +140,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -175,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -188,6 +194,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -498,7 +508,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="H8" activeCellId="13" sqref="E7 E8 E11 E17 E21 E23 G20 H20 G8 G7 G5 H5 H7 H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -574,10 +584,10 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="6">
+        <v>5</v>
+      </c>
+      <c r="H5" s="7">
         <v>5</v>
       </c>
       <c r="I5" s="2"/>
@@ -602,16 +612,16 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="2"/>
@@ -623,16 +633,16 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5</v>
+      </c>
+      <c r="H8" s="7">
         <v>5</v>
       </c>
       <c r="I8" s="2"/>
@@ -664,7 +674,7 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>5</v>
       </c>
       <c r="H11" s="2"/>
@@ -727,7 +737,7 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>5</v>
       </c>
       <c r="H17" s="2"/>
@@ -760,13 +770,13 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="C20" s="6">
+        <v>5</v>
+      </c>
+      <c r="G20" s="6">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7">
         <v>5</v>
       </c>
       <c r="I20" s="2"/>
@@ -778,7 +788,7 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>5</v>
       </c>
       <c r="H21" s="2"/>
@@ -801,7 +811,7 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>5</v>
       </c>
       <c r="H23" s="2"/>
@@ -814,7 +824,7 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>5</v>
       </c>
       <c r="H24" s="2"/>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\3ПКС-120\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65111CEE-1F8B-4DFA-9D34-94EB647B3A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD05007-9E57-432F-9805-D0C86FEE6B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,12 +192,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -508,7 +508,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" activeCellId="13" sqref="E7 E8 E11 E17 E21 E23 G20 H20 G8 G7 G5 H5 H7 H8"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -525,27 +525,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -584,10 +584,10 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="6">
-        <v>5</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5">
         <v>5</v>
       </c>
       <c r="I5" s="2"/>
@@ -602,6 +602,9 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
@@ -612,16 +615,19 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6">
-        <v>5</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
         <v>5</v>
       </c>
       <c r="I7" s="2"/>
@@ -633,16 +639,19 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6">
-        <v>5</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5">
         <v>5</v>
       </c>
       <c r="I8" s="2"/>
@@ -674,7 +683,10 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="6">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
         <v>5</v>
       </c>
       <c r="H11" s="2"/>
@@ -687,6 +699,9 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -697,6 +712,9 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
@@ -707,6 +725,9 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
@@ -727,6 +748,9 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
@@ -737,7 +761,10 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="6">
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4">
         <v>5</v>
       </c>
       <c r="H17" s="2"/>
@@ -750,6 +777,9 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
@@ -770,13 +800,13 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="6">
-        <v>5</v>
-      </c>
-      <c r="G20" s="6">
-        <v>5</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5">
         <v>5</v>
       </c>
       <c r="I20" s="2"/>
@@ -788,7 +818,10 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="6">
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
         <v>5</v>
       </c>
       <c r="H21" s="2"/>
@@ -811,7 +844,7 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>5</v>
       </c>
       <c r="H23" s="2"/>
@@ -824,7 +857,7 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>5</v>
       </c>
       <c r="H24" s="2"/>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-120\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD05007-9E57-432F-9805-D0C86FEE6B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C365F2EC-B974-4772-9386-F98CC0BBFBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -631,6 +631,9 @@
         <v>5</v>
       </c>
       <c r="I7" s="2"/>
+      <c r="J7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -655,6 +658,9 @@
         <v>5</v>
       </c>
       <c r="I8" s="2"/>
+      <c r="J8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -691,6 +697,9 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
+      <c r="J11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -754,7 +763,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -769,8 +778,11 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -781,9 +793,14 @@
         <v>5</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -793,7 +810,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -811,7 +828,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -827,7 +844,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -837,7 +854,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -850,7 +867,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -863,7 +880,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -873,7 +890,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -883,7 +900,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C365F2EC-B974-4772-9386-F98CC0BBFBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD0BE85-3900-4A42-8DB1-39FC1A5F1CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -692,11 +692,21 @@
       <c r="C11">
         <v>5</v>
       </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
       <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
       <c r="J11">
         <v>5</v>
       </c>
@@ -724,8 +734,18 @@
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -760,7 +780,18 @@
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.25">
@@ -773,10 +804,18 @@
       <c r="C17">
         <v>5</v>
       </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
       <c r="E17" s="4">
         <v>5</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17">
         <v>5</v>
@@ -792,7 +831,18 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
       <c r="I18" s="2">
         <v>5</v>
       </c>
@@ -841,7 +891,9 @@
       <c r="E21" s="4">
         <v>5</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="13" x14ac:dyDescent="0.25">

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD0BE85-3900-4A42-8DB1-39FC1A5F1CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6037D43-6296-4D0A-8276-D2E0ABF6EE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -584,6 +584,12 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
       <c r="G5" s="4">
         <v>5</v>
       </c>
@@ -657,7 +663,9 @@
       <c r="H8" s="5">
         <v>5</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
       <c r="J8">
         <v>5</v>
       </c>
@@ -792,7 +800,12 @@
       <c r="H16" s="2">
         <v>5</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -913,11 +926,27 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
       <c r="E23" s="4">
         <v>5</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6037D43-6296-4D0A-8276-D2E0ABF6EE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832A5166-8A1F-42EC-9FA2-919D30086804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -584,10 +584,10 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
         <v>5</v>
       </c>
       <c r="G5" s="4">
@@ -608,7 +608,7 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="H6" s="2"/>
@@ -621,7 +621,7 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>5</v>
       </c>
       <c r="D7" s="4">
@@ -648,7 +648,7 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>5</v>
       </c>
       <c r="D8" s="4">
@@ -663,7 +663,7 @@
       <c r="H8" s="5">
         <v>5</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>5</v>
       </c>
       <c r="J8">
@@ -697,22 +697,22 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
         <v>5</v>
       </c>
       <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
         <v>5</v>
       </c>
       <c r="J11">
@@ -726,7 +726,7 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>5</v>
       </c>
       <c r="H12" s="2"/>
@@ -739,19 +739,19 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5">
         <v>5</v>
       </c>
     </row>
@@ -762,7 +762,7 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>5</v>
       </c>
       <c r="H14" s="2"/>
@@ -785,22 +785,22 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5">
         <v>5</v>
       </c>
       <c r="J16">
@@ -814,19 +814,19 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
         <v>5</v>
       </c>
       <c r="E17" s="4">
         <v>5</v>
       </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5">
         <v>5</v>
       </c>
       <c r="I17" s="2"/>
@@ -841,22 +841,22 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>5</v>
+      </c>
+      <c r="I18" s="5">
         <v>5</v>
       </c>
       <c r="J18">
@@ -898,13 +898,13 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>5</v>
       </c>
       <c r="E21" s="4">
         <v>5</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="5">
         <v>5</v>
       </c>
       <c r="I21" s="2"/>
@@ -926,22 +926,22 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
         <v>5</v>
       </c>
       <c r="E23" s="4">
         <v>5</v>
       </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2">
-        <v>5</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="G23" s="4">
+        <v>5</v>
+      </c>
+      <c r="H23" s="5">
+        <v>5</v>
+      </c>
+      <c r="I23" s="5">
         <v>5</v>
       </c>
       <c r="J23">

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832A5166-8A1F-42EC-9FA2-919D30086804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A225ABF3-8F68-4400-9D12-C6B413975D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Абакумов Кирилл</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Лаб_12</t>
+  </si>
+  <si>
+    <t>Лаб_13</t>
+  </si>
+  <si>
+    <t>Лаб_14</t>
   </si>
 </sst>
 </file>
@@ -140,7 +146,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -196,6 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -505,10 +518,10 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -525,27 +538,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -572,6 +585,12 @@
       <c r="J3" t="s">
         <v>29</v>
       </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="H4" s="1"/>
@@ -807,7 +826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -834,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -862,18 +881,24 @@
       <c r="J18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C19" s="6">
+        <v>5</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -891,7 +916,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -909,7 +934,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -919,7 +944,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -948,40 +973,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C24" s="6">
+        <v>5</v>
+      </c>
       <c r="D24" s="4">
         <v>5</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C25" s="6">
+        <v>5</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-120\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A225ABF3-8F68-4400-9D12-C6B413975D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD892F91-1B50-4425-A8BB-6ABA1E0300CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -688,6 +688,9 @@
       <c r="J8">
         <v>5</v>
       </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -708,6 +711,12 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -750,6 +759,9 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
+      <c r="J12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -773,6 +785,9 @@
       <c r="I13" s="5">
         <v>5</v>
       </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -786,6 +801,9 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
+      <c r="J14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -852,6 +870,12 @@
       <c r="J17">
         <v>5</v>
       </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -881,6 +905,9 @@
       <c r="J18">
         <v>5</v>
       </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
       <c r="L18">
         <v>5</v>
       </c>
@@ -896,7 +923,12 @@
         <v>5</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -987,7 +1019,12 @@
         <v>5</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1000,7 +1037,15 @@
         <v>5</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1013,7 +1058,12 @@
         <v>5</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H27" s="3"/>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD892F91-1B50-4425-A8BB-6ABA1E0300CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39186C0-53AD-4F33-B956-66FE79000042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -710,7 +710,9 @@
         <v>5</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
       <c r="J10">
         <v>5</v>
       </c>
@@ -758,7 +760,9 @@
         <v>5</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
       <c r="J12">
         <v>5</v>
       </c>
@@ -799,8 +803,12 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
       <c r="J14">
         <v>5</v>
       </c>
@@ -866,7 +874,9 @@
       <c r="H17" s="5">
         <v>5</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
       <c r="J17">
         <v>5</v>
       </c>
@@ -922,7 +932,9 @@
       <c r="C19" s="6">
         <v>5</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
       <c r="I19" s="2">
         <v>5</v>
       </c>
@@ -1018,7 +1030,9 @@
       <c r="D24" s="4">
         <v>5</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
       <c r="I24" s="2">
         <v>5</v>
       </c>
@@ -1036,7 +1050,9 @@
       <c r="C25" s="6">
         <v>5</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
       <c r="I25" s="2">
         <v>5</v>
       </c>
@@ -1057,7 +1073,9 @@
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
       <c r="I26" s="2">
         <v>5</v>
       </c>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39186C0-53AD-4F33-B956-66FE79000042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3AF9F1-6470-486C-88FE-3F9E10E9DBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,10 +518,10 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,18 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
       <c r="I10" s="2">
         <v>5</v>
       </c>
@@ -759,7 +770,18 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
       <c r="I12" s="2">
         <v>5</v>
       </c>
@@ -780,6 +802,9 @@
       <c r="D13" s="4">
         <v>5</v>
       </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
@@ -803,6 +828,15 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5</v>
+      </c>
       <c r="H14" s="2">
         <v>5</v>
       </c>
@@ -932,6 +966,12 @@
       <c r="C19" s="6">
         <v>5</v>
       </c>
+      <c r="D19" s="6">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5</v>
+      </c>
       <c r="H19" s="2">
         <v>5</v>
       </c>
@@ -1030,6 +1070,9 @@
       <c r="D24" s="4">
         <v>5</v>
       </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
       <c r="H24" s="2">
         <v>5</v>
       </c>
@@ -1050,6 +1093,15 @@
       <c r="C25" s="6">
         <v>5</v>
       </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
       <c r="H25" s="2">
         <v>5</v>
       </c>
@@ -1071,6 +1123,15 @@
         <v>21</v>
       </c>
       <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="G26">
         <v>5</v>
       </c>
       <c r="H26" s="2">

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3AF9F1-6470-486C-88FE-3F9E10E9DBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EF2CD5-BB74-4560-B6E8-1BF6DDAD069E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,11 +517,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>5</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>5</v>
       </c>
     </row>
@@ -685,7 +685,7 @@
       <c r="I8" s="5">
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>5</v>
       </c>
       <c r="L8">
@@ -709,22 +709,22 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6">
-        <v>5</v>
-      </c>
-      <c r="G10" s="6">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>5</v>
-      </c>
-      <c r="J10">
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
         <v>5</v>
       </c>
       <c r="K10">
@@ -756,7 +756,7 @@
       <c r="I11" s="5">
         <v>5</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>5</v>
       </c>
     </row>
@@ -770,22 +770,22 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="6">
-        <v>5</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
         <v>5</v>
       </c>
       <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>5</v>
-      </c>
-      <c r="J12">
+      <c r="H12" s="5">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4">
         <v>5</v>
       </c>
     </row>
@@ -802,7 +802,7 @@
       <c r="D13" s="4">
         <v>5</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>5</v>
       </c>
       <c r="G13" s="4">
@@ -814,7 +814,7 @@
       <c r="I13" s="5">
         <v>5</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>5</v>
       </c>
     </row>
@@ -828,22 +828,22 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="G14" s="6">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2">
-        <v>5</v>
-      </c>
-      <c r="J14">
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
+        <v>5</v>
+      </c>
+      <c r="J14" s="4">
         <v>5</v>
       </c>
     </row>
@@ -882,7 +882,7 @@
       <c r="I16" s="5">
         <v>5</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>5</v>
       </c>
     </row>
@@ -908,10 +908,10 @@
       <c r="H17" s="5">
         <v>5</v>
       </c>
-      <c r="I17" s="2">
-        <v>5</v>
-      </c>
-      <c r="J17">
+      <c r="I17" s="5">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4">
         <v>5</v>
       </c>
       <c r="K17">
@@ -946,7 +946,7 @@
       <c r="I18" s="5">
         <v>5</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>5</v>
       </c>
       <c r="K18">
@@ -966,19 +966,19 @@
       <c r="C19" s="6">
         <v>5</v>
       </c>
-      <c r="D19" s="6">
-        <v>5</v>
-      </c>
-      <c r="G19" s="6">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2">
-        <v>5</v>
-      </c>
-      <c r="J19">
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>5</v>
+      </c>
+      <c r="I19" s="5">
+        <v>5</v>
+      </c>
+      <c r="J19" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       <c r="I23" s="5">
         <v>5</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1070,16 +1070,16 @@
       <c r="D24" s="4">
         <v>5</v>
       </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2">
-        <v>5</v>
-      </c>
-      <c r="J24">
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
+      <c r="H24" s="5">
+        <v>5</v>
+      </c>
+      <c r="I24" s="5">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1093,22 +1093,22 @@
       <c r="C25" s="6">
         <v>5</v>
       </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2">
-        <v>5</v>
-      </c>
-      <c r="I25" s="2">
-        <v>5</v>
-      </c>
-      <c r="J25">
+      <c r="D25" s="4">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5</v>
+      </c>
+      <c r="H25" s="5">
+        <v>5</v>
+      </c>
+      <c r="I25" s="5">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4">
         <v>5</v>
       </c>
       <c r="K25">
@@ -1125,22 +1125,22 @@
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26" s="2">
-        <v>5</v>
-      </c>
-      <c r="I26" s="2">
-        <v>5</v>
-      </c>
-      <c r="J26">
+      <c r="D26" s="4">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5</v>
+      </c>
+      <c r="I26" s="5">
+        <v>5</v>
+      </c>
+      <c r="J26" s="4">
         <v>5</v>
       </c>
     </row>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EF2CD5-BB74-4560-B6E8-1BF6DDAD069E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517BC0FA-F01F-4B56-9054-A9CD1C550349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -659,6 +659,9 @@
       <c r="J7" s="4">
         <v>5</v>
       </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -999,6 +1002,9 @@
         <v>5</v>
       </c>
       <c r="I20" s="2"/>
+      <c r="J20" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517BC0FA-F01F-4B56-9054-A9CD1C550349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F94CA0-B769-4818-B98B-71433EBDD9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F94CA0-B769-4818-B98B-71433EBDD9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0B9839-DBB1-426A-B809-D8F06207447D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -630,8 +630,24 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0B9839-DBB1-426A-B809-D8F06207447D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51315F0-1D16-41FD-9967-34D347FB30E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Абакумов Кирилл</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Лаб_14</t>
+  </si>
+  <si>
+    <t>Лаб_15</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -591,6 +594,9 @@
       <c r="L3" t="s">
         <v>31</v>
       </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="H4" s="1"/>
@@ -648,6 +654,12 @@
       <c r="J6">
         <v>5</v>
       </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -710,6 +722,9 @@
       <c r="L8">
         <v>5</v>
       </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -905,7 +920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -940,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -975,7 +990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1001,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1021,8 +1036,11 @@
       <c r="J20" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1040,7 +1058,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1050,7 +1068,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1079,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1105,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1166,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51315F0-1D16-41FD-9967-34D347FB30E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BDD250-804C-45A2-9F15-C8986D17762C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Абакумов Кирилл</t>
   </si>
@@ -119,21 +119,27 @@
   </si>
   <si>
     <t>Лаб_15</t>
+  </si>
+  <si>
+    <t>Лаб_16</t>
+  </si>
+  <si>
+    <t>Лаб_17</t>
+  </si>
+  <si>
+    <t>Тест_2</t>
+  </si>
+  <si>
+    <t>Тест_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -196,15 +202,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -212,8 +218,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -518,13 +522,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A2:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -535,664 +539,687 @@
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="5.90625" customWidth="1"/>
     <col min="6" max="6" width="5.7265625" customWidth="1"/>
-    <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="6.90625" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" customWidth="1"/>
+    <col min="7" max="17" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-    </row>
-    <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="2" spans="1:17" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4">
         <v>5</v>
       </c>
       <c r="G7" s="4">
         <v>5</v>
       </c>
-      <c r="H7" s="5">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="4">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5">
-        <v>5</v>
-      </c>
-      <c r="I8" s="5">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
         <v>5</v>
       </c>
       <c r="G10" s="4">
         <v>5</v>
       </c>
-      <c r="H10" s="5">
-        <v>5</v>
-      </c>
-      <c r="I10" s="5">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5">
+        <v>5</v>
+      </c>
+      <c r="K10" s="5">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>5</v>
       </c>
       <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="5">
-        <v>5</v>
-      </c>
-      <c r="I11" s="5">
-        <v>5</v>
-      </c>
-      <c r="J11" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>5</v>
       </c>
       <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="5">
-        <v>5</v>
-      </c>
-      <c r="I12" s="5">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5</v>
+      </c>
+      <c r="K12" s="5">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>5</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
-      <c r="H13" s="5">
-        <v>5</v>
-      </c>
-      <c r="I13" s="5">
-        <v>5</v>
-      </c>
-      <c r="J13" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
+      <c r="J13" s="5">
+        <v>5</v>
+      </c>
+      <c r="K13" s="5">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4">
-        <v>5</v>
-      </c>
-      <c r="H14" s="5">
-        <v>5</v>
-      </c>
-      <c r="I14" s="5">
-        <v>5</v>
-      </c>
-      <c r="J14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>5</v>
+      </c>
+      <c r="K15" s="5">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C16" s="4">
         <v>5</v>
       </c>
-      <c r="D16" s="4">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4">
         <v>5</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
       </c>
-      <c r="H16" s="5">
-        <v>5</v>
-      </c>
-      <c r="I16" s="5">
-        <v>5</v>
-      </c>
-      <c r="J16" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="I16" s="4">
+        <v>5</v>
+      </c>
+      <c r="J16" s="5">
+        <v>5</v>
+      </c>
+      <c r="K16" s="5">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C17" s="4">
         <v>5</v>
       </c>
-      <c r="D17" s="4">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>5</v>
       </c>
       <c r="G17" s="4">
         <v>5</v>
       </c>
-      <c r="H17" s="5">
-        <v>5</v>
-      </c>
-      <c r="I17" s="5">
-        <v>5</v>
-      </c>
-      <c r="J17" s="4">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="I17" s="4">
+        <v>5</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5</v>
+      </c>
+      <c r="K17" s="5">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4">
-        <v>5</v>
-      </c>
-      <c r="H18" s="5">
-        <v>5</v>
-      </c>
-      <c r="I18" s="5">
-        <v>5</v>
-      </c>
-      <c r="J18" s="4">
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="C18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="5">
+        <v>5</v>
+      </c>
+      <c r="K18" s="5">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4">
-        <v>5</v>
-      </c>
-      <c r="H19" s="5">
-        <v>5</v>
-      </c>
-      <c r="I19" s="5">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4">
+        <v>5</v>
+      </c>
+      <c r="J19" s="5">
+        <v>5</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="6">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C20" s="4">
         <v>5</v>
       </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
       <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="H20" s="5">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="6">
-        <v>5</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="J20" s="5">
+        <v>5</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="4">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5">
-        <v>5</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4">
+        <v>5</v>
+      </c>
+      <c r="J22" s="5">
+        <v>5</v>
+      </c>
+      <c r="K22" s="5">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4">
-        <v>5</v>
-      </c>
-      <c r="E23" s="4">
-        <v>5</v>
-      </c>
-      <c r="G23" s="4">
-        <v>5</v>
-      </c>
-      <c r="H23" s="5">
-        <v>5</v>
-      </c>
-      <c r="I23" s="5">
-        <v>5</v>
-      </c>
-      <c r="J23" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="C23" s="6">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>5</v>
+      </c>
+      <c r="J23" s="5">
+        <v>5</v>
+      </c>
+      <c r="K23" s="5">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C24" s="6">
         <v>5</v>
       </c>
-      <c r="D24" s="4">
+      <c r="F24" s="4">
         <v>5</v>
       </c>
       <c r="G24" s="4">
         <v>5</v>
       </c>
-      <c r="H24" s="5">
-        <v>5</v>
-      </c>
-      <c r="I24" s="5">
-        <v>5</v>
-      </c>
-      <c r="J24" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="I24" s="4">
+        <v>5</v>
+      </c>
+      <c r="J24" s="5">
+        <v>5</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="6">
-        <v>5</v>
-      </c>
-      <c r="D25" s="4">
-        <v>5</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4">
         <v>5</v>
       </c>
       <c r="G25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="5">
-        <v>5</v>
-      </c>
-      <c r="I25" s="5">
-        <v>5</v>
-      </c>
-      <c r="J25" s="4">
-        <v>5</v>
-      </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26" s="4">
-        <v>5</v>
-      </c>
-      <c r="E26" s="4">
-        <v>5</v>
-      </c>
-      <c r="G26" s="4">
-        <v>5</v>
-      </c>
-      <c r="H26" s="5">
-        <v>5</v>
-      </c>
-      <c r="I26" s="5">
-        <v>5</v>
-      </c>
-      <c r="J26" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I25" s="4">
+        <v>5</v>
+      </c>
+      <c r="J25" s="5">
+        <v>5</v>
+      </c>
+      <c r="K25" s="5">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="C1:W1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BDD250-804C-45A2-9F15-C8986D17762C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6D131B-648A-4624-97C9-56447BF7D1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Абакумов Кирилл</t>
   </si>
@@ -88,49 +88,55 @@
     <t>Шатилов Арсений</t>
   </si>
   <si>
-    <t>Лаб_6</t>
-  </si>
-  <si>
-    <t>Тест_1</t>
-  </si>
-  <si>
-    <t>Лаб_7</t>
-  </si>
-  <si>
-    <t>Лаб_8</t>
-  </si>
-  <si>
-    <t>Лаб_9</t>
-  </si>
-  <si>
-    <t>Лаб_10</t>
-  </si>
-  <si>
-    <t>Лаб_11</t>
-  </si>
-  <si>
-    <t>Лаб_12</t>
-  </si>
-  <si>
-    <t>Лаб_13</t>
-  </si>
-  <si>
-    <t>Лаб_14</t>
-  </si>
-  <si>
-    <t>Лаб_15</t>
-  </si>
-  <si>
-    <t>Лаб_16</t>
-  </si>
-  <si>
-    <t>Лаб_17</t>
-  </si>
-  <si>
-    <t>Тест_2</t>
-  </si>
-  <si>
-    <t>Тест_3</t>
+    <t>Л_6</t>
+  </si>
+  <si>
+    <t>Л_7</t>
+  </si>
+  <si>
+    <t>Л_8</t>
+  </si>
+  <si>
+    <t>Л_9</t>
+  </si>
+  <si>
+    <t>Л_10</t>
+  </si>
+  <si>
+    <t>Л_11</t>
+  </si>
+  <si>
+    <t>Л_12</t>
+  </si>
+  <si>
+    <t>Л_13</t>
+  </si>
+  <si>
+    <t>Л_14</t>
+  </si>
+  <si>
+    <t>Л_15</t>
+  </si>
+  <si>
+    <t>Л_16</t>
+  </si>
+  <si>
+    <t>Л_17</t>
+  </si>
+  <si>
+    <t>Т_3</t>
+  </si>
+  <si>
+    <t>Т_2</t>
+  </si>
+  <si>
+    <t>Т_1</t>
+  </si>
+  <si>
+    <t>Л_18</t>
+  </si>
+  <si>
+    <t>Л_19</t>
   </si>
 </sst>
 </file>
@@ -522,78 +528,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q26"/>
+  <dimension ref="A2:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" customWidth="1"/>
-    <col min="7" max="17" width="6.7265625" customWidth="1"/>
+    <col min="3" max="5" width="3.54296875" customWidth="1"/>
+    <col min="6" max="17" width="4.6328125" customWidth="1"/>
+    <col min="18" max="19" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.25">
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -622,8 +632,14 @@
       <c r="L4" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -658,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -688,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -735,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -745,7 +761,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -774,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -803,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -832,7 +848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -861,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -890,7 +906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -900,7 +916,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -929,7 +945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -967,6 +983,15 @@
         <v>5</v>
       </c>
       <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="S16">
         <v>5</v>
       </c>
     </row>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-120\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6D131B-648A-4624-97C9-56447BF7D1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E088A84D-E997-4523-BD88-2E8C9B54D3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Абакумов Кирилл</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Л_19</t>
+  </si>
+  <si>
+    <t>Т_4</t>
   </si>
 </sst>
 </file>
@@ -528,13 +531,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:S26"/>
+  <dimension ref="A2:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -546,7 +549,7 @@
     <col min="18" max="19" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>36</v>
       </c>
@@ -557,53 +560,56 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.25">
-      <c r="J3" s="1"/>
+    <row r="3" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -619,27 +625,27 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="G4" s="4">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4">
-        <v>5</v>
-      </c>
-      <c r="J4" s="5">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="4">
-        <v>5</v>
-      </c>
-      <c r="O4">
+      <c r="H4" s="4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="4">
         <v>5</v>
       </c>
       <c r="P4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -649,22 +655,19 @@
       <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="J5">
         <v>5</v>
       </c>
       <c r="K5" s="2">
         <v>5</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>5</v>
       </c>
       <c r="M5">
@@ -673,8 +676,11 @@
       <c r="N5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -684,27 +690,39 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="I6" s="4">
-        <v>5</v>
-      </c>
-      <c r="J6" s="5">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="4">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -720,25 +738,22 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
       <c r="G7" s="4">
         <v>5</v>
       </c>
-      <c r="I7" s="4">
-        <v>5</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
         <v>5</v>
       </c>
       <c r="K7" s="5">
         <v>5</v>
       </c>
-      <c r="L7" s="4">
-        <v>5</v>
-      </c>
-      <c r="N7">
+      <c r="L7" s="5">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4">
         <v>5</v>
       </c>
       <c r="O7">
@@ -750,47 +765,50 @@
       <c r="Q7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="4">
-        <v>5</v>
-      </c>
       <c r="G9" s="4">
         <v>5</v>
       </c>
-      <c r="I9" s="4">
-        <v>5</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4">
         <v>5</v>
       </c>
       <c r="K9" s="5">
         <v>5</v>
       </c>
-      <c r="L9" s="4">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="5">
+        <v>5</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -800,26 +818,50 @@
       <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
       <c r="G10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="4">
-        <v>5</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
         <v>5</v>
       </c>
       <c r="K10" s="5">
         <v>5</v>
       </c>
-      <c r="L10" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="5">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -829,26 +871,50 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="F11" s="4">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="I11" s="4">
-        <v>5</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4">
         <v>5</v>
       </c>
       <c r="K11" s="5">
         <v>5</v>
       </c>
-      <c r="L11" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="5">
+        <v>5</v>
+      </c>
+      <c r="M11" s="4">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -858,26 +924,26 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="F12" s="4">
-        <v>5</v>
-      </c>
       <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="I12" s="4">
-        <v>5</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4">
         <v>5</v>
       </c>
       <c r="K12" s="5">
         <v>5</v>
       </c>
-      <c r="L12" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="5">
+        <v>5</v>
+      </c>
+      <c r="M12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -887,36 +953,36 @@
       <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="F13" s="4">
-        <v>5</v>
-      </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
-      <c r="I13" s="4">
-        <v>5</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="J13" s="4">
         <v>5</v>
       </c>
       <c r="K13" s="5">
         <v>5</v>
       </c>
-      <c r="L13" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="5">
+        <v>5</v>
+      </c>
+      <c r="M13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -926,26 +992,26 @@
       <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
       <c r="G15" s="4">
         <v>5</v>
       </c>
-      <c r="I15" s="4">
-        <v>5</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4">
         <v>5</v>
       </c>
       <c r="K15" s="5">
         <v>5</v>
       </c>
-      <c r="L15" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="5">
+        <v>5</v>
+      </c>
+      <c r="M15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -961,25 +1027,22 @@
       <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16" s="4">
-        <v>5</v>
-      </c>
       <c r="G16" s="4">
         <v>5</v>
       </c>
-      <c r="I16" s="4">
-        <v>5</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="H16" s="4">
+        <v>5</v>
+      </c>
+      <c r="J16" s="4">
         <v>5</v>
       </c>
       <c r="K16" s="5">
         <v>5</v>
       </c>
-      <c r="L16" s="4">
-        <v>5</v>
-      </c>
-      <c r="M16">
+      <c r="L16" s="5">
+        <v>5</v>
+      </c>
+      <c r="M16" s="4">
         <v>5</v>
       </c>
       <c r="N16">
@@ -991,11 +1054,14 @@
       <c r="P16">
         <v>5</v>
       </c>
-      <c r="S16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1005,32 +1071,38 @@
       <c r="C17" s="4">
         <v>5</v>
       </c>
-      <c r="F17" s="4">
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
         <v>5</v>
       </c>
       <c r="G17" s="4">
         <v>5</v>
       </c>
-      <c r="I17" s="4">
-        <v>5</v>
-      </c>
-      <c r="J17" s="5">
+      <c r="H17" s="4">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4">
         <v>5</v>
       </c>
       <c r="K17" s="5">
         <v>5</v>
       </c>
-      <c r="L17" s="4">
-        <v>5</v>
-      </c>
-      <c r="M17">
+      <c r="L17" s="5">
+        <v>5</v>
+      </c>
+      <c r="M17" s="4">
         <v>5</v>
       </c>
       <c r="N17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1040,23 +1112,23 @@
       <c r="C18" s="6">
         <v>5</v>
       </c>
-      <c r="F18" s="4">
-        <v>5</v>
-      </c>
-      <c r="I18" s="4">
-        <v>5</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4">
         <v>5</v>
       </c>
       <c r="K18" s="5">
         <v>5</v>
       </c>
-      <c r="L18" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="5">
+        <v>5</v>
+      </c>
+      <c r="M18" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1072,17 +1144,14 @@
       <c r="E19">
         <v>5</v>
       </c>
-      <c r="I19" s="4">
-        <v>5</v>
-      </c>
-      <c r="J19" s="5">
-        <v>5</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="6">
-        <v>5</v>
-      </c>
-      <c r="O19">
+      <c r="J19" s="4">
+        <v>5</v>
+      </c>
+      <c r="K19" s="5">
+        <v>5</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="6">
         <v>5</v>
       </c>
       <c r="P19">
@@ -1091,8 +1160,11 @@
       <c r="Q19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1105,25 +1177,25 @@
       <c r="E20">
         <v>5</v>
       </c>
-      <c r="G20" s="4">
-        <v>5</v>
-      </c>
-      <c r="J20" s="5">
-        <v>5</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="K20" s="5">
+        <v>5</v>
+      </c>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1133,26 +1205,44 @@
       <c r="C22" s="4">
         <v>5</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22">
         <v>5</v>
       </c>
       <c r="G22" s="4">
         <v>5</v>
       </c>
-      <c r="I22" s="4">
-        <v>5</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="H22" s="4">
+        <v>5</v>
+      </c>
+      <c r="J22" s="4">
         <v>5</v>
       </c>
       <c r="K22" s="5">
         <v>5</v>
       </c>
-      <c r="L22" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="5">
+        <v>5</v>
+      </c>
+      <c r="M22" s="4">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1162,23 +1252,23 @@
       <c r="C23" s="6">
         <v>5</v>
       </c>
-      <c r="F23" s="4">
-        <v>5</v>
-      </c>
-      <c r="I23" s="4">
-        <v>5</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="G23" s="4">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4">
         <v>5</v>
       </c>
       <c r="K23" s="5">
         <v>5</v>
       </c>
-      <c r="L23" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="5">
+        <v>5</v>
+      </c>
+      <c r="M23" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1188,29 +1278,29 @@
       <c r="C24" s="6">
         <v>5</v>
       </c>
-      <c r="F24" s="4">
-        <v>5</v>
-      </c>
       <c r="G24" s="4">
         <v>5</v>
       </c>
-      <c r="I24" s="4">
-        <v>5</v>
-      </c>
-      <c r="J24" s="5">
+      <c r="H24" s="4">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4">
         <v>5</v>
       </c>
       <c r="K24" s="5">
         <v>5</v>
       </c>
-      <c r="L24" s="4">
-        <v>5</v>
-      </c>
-      <c r="M24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="5">
+        <v>5</v>
+      </c>
+      <c r="M24" s="4">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1220,28 +1310,28 @@
       <c r="C25">
         <v>5</v>
       </c>
-      <c r="F25" s="4">
-        <v>5</v>
-      </c>
       <c r="G25" s="4">
         <v>5</v>
       </c>
-      <c r="I25" s="4">
-        <v>5</v>
-      </c>
-      <c r="J25" s="5">
+      <c r="H25" s="4">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4">
         <v>5</v>
       </c>
       <c r="K25" s="5">
         <v>5</v>
       </c>
-      <c r="L25" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="13" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="3"/>
+      <c r="L25" s="5">
+        <v>5</v>
+      </c>
+      <c r="M25" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E088A84D-E997-4523-BD88-2E8C9B54D3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB6E13E-EBF9-4AB6-B3D7-2D08CCA2AA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -227,6 +227,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -534,10 +535,10 @@
   <dimension ref="A2:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1115,6 +1116,9 @@
       <c r="G18" s="4">
         <v>5</v>
       </c>
+      <c r="H18" s="7">
+        <v>5</v>
+      </c>
       <c r="J18" s="4">
         <v>5</v>
       </c>
@@ -1253,6 +1257,9 @@
         <v>5</v>
       </c>
       <c r="G23" s="4">
+        <v>5</v>
+      </c>
+      <c r="H23">
         <v>5</v>
       </c>
       <c r="J23" s="4">

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB6E13E-EBF9-4AB6-B3D7-2D08CCA2AA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E125EC-1CDB-4515-BA55-FA015D04C37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -227,7 +227,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -535,10 +534,10 @@
   <dimension ref="A2:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -972,6 +971,9 @@
       <c r="M13" s="4">
         <v>5</v>
       </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1116,7 +1118,10 @@
       <c r="G18" s="4">
         <v>5</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
         <v>5</v>
       </c>
       <c r="J18" s="4">
@@ -1129,6 +1134,12 @@
         <v>5</v>
       </c>
       <c r="M18" s="4">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
         <v>5</v>
       </c>
     </row>
@@ -1262,6 +1273,9 @@
       <c r="H23">
         <v>5</v>
       </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
       <c r="J23" s="4">
         <v>5</v>
       </c>
@@ -1272,6 +1286,12 @@
         <v>5</v>
       </c>
       <c r="M23" s="4">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
         <v>5</v>
       </c>
     </row>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E125EC-1CDB-4515-BA55-FA015D04C37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B607FD7E-8EBB-463A-91A9-A3FD40C4DB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,10 +534,10 @@
   <dimension ref="A2:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -942,6 +942,12 @@
       <c r="M12" s="4">
         <v>5</v>
       </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1311,6 +1317,9 @@
       <c r="H24" s="4">
         <v>5</v>
       </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
       <c r="J24" s="4">
         <v>5</v>
       </c>
@@ -1324,6 +1333,9 @@
         <v>5</v>
       </c>
       <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
         <v>5</v>
       </c>
     </row>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B607FD7E-8EBB-463A-91A9-A3FD40C4DB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F484620-17F0-47C7-9099-40D9B4089510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,7 +537,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -679,6 +679,15 @@
       <c r="O5">
         <v>5</v>
       </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -948,6 +957,15 @@
       <c r="O12">
         <v>5</v>
       </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -980,6 +998,18 @@
       <c r="N13">
         <v>5</v>
       </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1110,6 +1140,15 @@
       <c r="O17">
         <v>5</v>
       </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1148,6 +1187,12 @@
       <c r="O18">
         <v>5</v>
       </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1300,6 +1345,12 @@
       <c r="O23">
         <v>5</v>
       </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1336,6 +1387,12 @@
         <v>5</v>
       </c>
       <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
         <v>5</v>
       </c>
     </row>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F484620-17F0-47C7-9099-40D9B4089510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94618C21-C0E5-4050-AC76-93FB0986EA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Абакумов Кирилл</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Т_4</t>
+  </si>
+  <si>
+    <t>Л_25</t>
   </si>
 </sst>
 </file>
@@ -531,13 +534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T26"/>
+  <dimension ref="A2:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -549,7 +552,7 @@
     <col min="18" max="19" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>36</v>
       </c>
@@ -604,12 +607,15 @@
       <c r="T2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -645,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -655,6 +661,12 @@
       <c r="C5" s="4">
         <v>5</v>
       </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
       <c r="G5">
         <v>5</v>
       </c>
@@ -688,8 +700,11 @@
       <c r="R5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -731,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -747,6 +762,9 @@
       <c r="E7">
         <v>5</v>
       </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
       <c r="G7" s="4">
         <v>5</v>
       </c>
@@ -777,8 +795,11 @@
       <c r="R7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -788,7 +809,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -817,7 +838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -833,6 +854,9 @@
       <c r="E10">
         <v>5</v>
       </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
       <c r="G10" s="4">
         <v>5</v>
       </c>
@@ -869,8 +893,11 @@
       <c r="T10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -922,8 +949,11 @@
       <c r="R11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -933,6 +963,15 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
       <c r="G12" s="4">
         <v>5</v>
       </c>
@@ -966,8 +1005,11 @@
       <c r="R12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -977,6 +1019,9 @@
       <c r="C13" s="4">
         <v>5</v>
       </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
@@ -1010,8 +1055,11 @@
       <c r="R13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1021,7 +1069,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1050,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1100,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1116,6 +1164,9 @@
       <c r="E17">
         <v>5</v>
       </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
       <c r="G17" s="4">
         <v>5</v>
       </c>
@@ -1150,7 +1201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1160,6 +1211,9 @@
       <c r="C18" s="6">
         <v>5</v>
       </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
       <c r="G18" s="4">
         <v>5</v>
       </c>
@@ -1193,8 +1247,11 @@
       <c r="Q18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1230,7 +1287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1243,6 +1300,9 @@
       <c r="E20">
         <v>5</v>
       </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
       <c r="H20" s="4">
         <v>5</v>
       </c>
@@ -1251,17 +1311,20 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1307,8 +1370,11 @@
       <c r="R22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1318,6 +1384,9 @@
       <c r="C23" s="6">
         <v>5</v>
       </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
       <c r="G23" s="4">
         <v>5</v>
       </c>
@@ -1351,8 +1420,11 @@
       <c r="Q23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1362,6 +1434,12 @@
       <c r="C24" s="6">
         <v>5</v>
       </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
       <c r="G24" s="4">
         <v>5</v>
       </c>
@@ -1395,8 +1473,14 @@
       <c r="Q24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="T24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1425,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94618C21-C0E5-4050-AC76-93FB0986EA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2476A279-0DDD-418E-A6AE-6B9FDB789894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,10 +537,10 @@
   <dimension ref="A2:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -806,8 +806,20 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1097,6 +1109,15 @@
       <c r="M15" s="4">
         <v>5</v>
       </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1506,6 +1527,15 @@
         <v>5</v>
       </c>
       <c r="M25" s="4">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
         <v>5</v>
       </c>
     </row>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2476A279-0DDD-418E-A6AE-6B9FDB789894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80472116-ADE2-4C10-9816-CBF66D8573D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,10 +537,10 @@
   <dimension ref="A2:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -820,6 +820,12 @@
       <c r="P8">
         <v>5</v>
       </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1020,6 +1026,9 @@
       <c r="T12">
         <v>5</v>
       </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1091,6 +1100,15 @@
       <c r="C15" s="4">
         <v>5</v>
       </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
       <c r="G15" s="4">
         <v>5</v>
       </c>
@@ -1116,6 +1134,18 @@
         <v>5</v>
       </c>
       <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="U15">
         <v>5</v>
       </c>
     </row>
@@ -1221,6 +1251,9 @@
       <c r="R17">
         <v>5</v>
       </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1391,6 +1424,9 @@
       <c r="R22">
         <v>5</v>
       </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
       <c r="U22">
         <v>5</v>
       </c>
@@ -1511,6 +1547,15 @@
       <c r="C25">
         <v>5</v>
       </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
       <c r="G25" s="4">
         <v>5</v>
       </c>
@@ -1536,6 +1581,18 @@
         <v>5</v>
       </c>
       <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="U25">
         <v>5</v>
       </c>
     </row>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80472116-ADE2-4C10-9816-CBF66D8573D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D13B45-22C4-4CE1-81E8-D37920D99C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,12 +177,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -229,7 +223,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -537,10 +530,10 @@
   <dimension ref="A2:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="U25" activeCellId="32" sqref="R5 R6 R7 R8 R10 R11 R12 R13 R15 R17 R18 R19 R22 R23 R24 R25 T5 T10 T12 T13 T15 T16 T22 T24 T25 U7 U10 U11 U12 U15 U17 U22 U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -625,10 +618,10 @@
       <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
         <v>5</v>
       </c>
       <c r="H4" s="4">
@@ -644,10 +637,10 @@
       <c r="M4" s="4">
         <v>5</v>
       </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-      <c r="Q4">
+      <c r="P4" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="4">
         <v>5</v>
       </c>
     </row>
@@ -661,46 +654,46 @@
       <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>5</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-      <c r="R5">
-        <v>5</v>
-      </c>
-      <c r="T5">
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4">
+        <v>5</v>
+      </c>
+      <c r="O5" s="4">
+        <v>5</v>
+      </c>
+      <c r="P5" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>5</v>
+      </c>
+      <c r="R5" s="4">
+        <v>5</v>
+      </c>
+      <c r="T5" s="4">
         <v>5</v>
       </c>
     </row>
@@ -714,7 +707,7 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>5</v>
       </c>
       <c r="G6" s="4">
@@ -733,16 +726,16 @@
       <c r="M6" s="4">
         <v>5</v>
       </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="R6">
+      <c r="O6" s="4">
+        <v>5</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>5</v>
+      </c>
+      <c r="R6" s="4">
         <v>5</v>
       </c>
     </row>
@@ -756,13 +749,13 @@
       <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4">
         <v>5</v>
       </c>
       <c r="G7" s="4">
@@ -783,19 +776,19 @@
       <c r="M7" s="4">
         <v>5</v>
       </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
-      </c>
-      <c r="R7">
-        <v>5</v>
-      </c>
-      <c r="U7">
+      <c r="O7" s="4">
+        <v>5</v>
+      </c>
+      <c r="P7" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>5</v>
+      </c>
+      <c r="R7" s="4">
+        <v>5</v>
+      </c>
+      <c r="U7" s="4">
         <v>5</v>
       </c>
     </row>
@@ -806,24 +799,24 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>5</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-      <c r="R8">
+      <c r="N8" s="4">
+        <v>5</v>
+      </c>
+      <c r="O8" s="4">
+        <v>5</v>
+      </c>
+      <c r="P8" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>5</v>
+      </c>
+      <c r="R8" s="4">
         <v>5</v>
       </c>
     </row>
@@ -852,7 +845,7 @@
       <c r="M9" s="4">
         <v>5</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>5</v>
       </c>
     </row>
@@ -866,13 +859,13 @@
       <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
         <v>5</v>
       </c>
       <c r="G10" s="4">
@@ -893,25 +886,25 @@
       <c r="M10" s="4">
         <v>5</v>
       </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <v>5</v>
-      </c>
-      <c r="P10">
-        <v>5</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-      <c r="R10">
-        <v>5</v>
-      </c>
-      <c r="T10">
-        <v>5</v>
-      </c>
-      <c r="U10">
+      <c r="N10" s="4">
+        <v>5</v>
+      </c>
+      <c r="O10" s="4">
+        <v>5</v>
+      </c>
+      <c r="P10" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>5</v>
+      </c>
+      <c r="R10" s="4">
+        <v>5</v>
+      </c>
+      <c r="T10" s="4">
+        <v>5</v>
+      </c>
+      <c r="U10" s="4">
         <v>5</v>
       </c>
     </row>
@@ -925,13 +918,13 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
         <v>5</v>
       </c>
       <c r="G11" s="4">
@@ -952,22 +945,22 @@
       <c r="M11" s="4">
         <v>5</v>
       </c>
-      <c r="N11">
-        <v>5</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>5</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
-      </c>
-      <c r="R11">
-        <v>5</v>
-      </c>
-      <c r="U11">
+      <c r="N11" s="4">
+        <v>5</v>
+      </c>
+      <c r="O11" s="4">
+        <v>5</v>
+      </c>
+      <c r="P11" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>5</v>
+      </c>
+      <c r="R11" s="4">
+        <v>5</v>
+      </c>
+      <c r="U11" s="4">
         <v>5</v>
       </c>
     </row>
@@ -981,13 +974,13 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4">
         <v>5</v>
       </c>
       <c r="G12" s="4">
@@ -1008,25 +1001,25 @@
       <c r="M12" s="4">
         <v>5</v>
       </c>
-      <c r="N12">
-        <v>5</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
-      </c>
-      <c r="R12">
-        <v>5</v>
-      </c>
-      <c r="T12">
-        <v>5</v>
-      </c>
-      <c r="U12">
+      <c r="N12" s="4">
+        <v>5</v>
+      </c>
+      <c r="O12" s="4">
+        <v>5</v>
+      </c>
+      <c r="P12" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>5</v>
+      </c>
+      <c r="R12" s="4">
+        <v>5</v>
+      </c>
+      <c r="T12" s="4">
+        <v>5</v>
+      </c>
+      <c r="U12" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1040,7 +1033,7 @@
       <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>5</v>
       </c>
       <c r="G13" s="4">
@@ -1061,22 +1054,22 @@
       <c r="M13" s="4">
         <v>5</v>
       </c>
-      <c r="N13">
-        <v>5</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
-      </c>
-      <c r="R13">
-        <v>5</v>
-      </c>
-      <c r="T13">
+      <c r="N13" s="4">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4">
+        <v>5</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>5</v>
+      </c>
+      <c r="R13" s="4">
+        <v>5</v>
+      </c>
+      <c r="T13" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1100,13 +1093,13 @@
       <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
+      <c r="D15" s="4">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
         <v>5</v>
       </c>
       <c r="G15" s="4">
@@ -1127,25 +1120,25 @@
       <c r="M15" s="4">
         <v>5</v>
       </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15">
-        <v>5</v>
-      </c>
-      <c r="P15">
-        <v>5</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
-      </c>
-      <c r="R15">
-        <v>5</v>
-      </c>
-      <c r="T15">
-        <v>5</v>
-      </c>
-      <c r="U15">
+      <c r="N15" s="4">
+        <v>5</v>
+      </c>
+      <c r="O15" s="4">
+        <v>5</v>
+      </c>
+      <c r="P15" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>5</v>
+      </c>
+      <c r="R15" s="4">
+        <v>5</v>
+      </c>
+      <c r="T15" s="4">
+        <v>5</v>
+      </c>
+      <c r="U15" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1159,10 +1152,10 @@
       <c r="C16" s="4">
         <v>5</v>
       </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
         <v>5</v>
       </c>
       <c r="G16" s="4">
@@ -1183,19 +1176,19 @@
       <c r="M16" s="4">
         <v>5</v>
       </c>
-      <c r="N16">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
-      <c r="P16">
-        <v>5</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
-      </c>
-      <c r="T16">
+      <c r="N16" s="4">
+        <v>5</v>
+      </c>
+      <c r="O16" s="4">
+        <v>5</v>
+      </c>
+      <c r="P16" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>5</v>
+      </c>
+      <c r="T16" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1209,13 +1202,13 @@
       <c r="C17" s="4">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
+      <c r="D17" s="4">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4">
         <v>5</v>
       </c>
       <c r="G17" s="4">
@@ -1236,22 +1229,22 @@
       <c r="M17" s="4">
         <v>5</v>
       </c>
-      <c r="N17">
-        <v>5</v>
-      </c>
-      <c r="O17">
-        <v>5</v>
-      </c>
-      <c r="P17">
-        <v>5</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-      <c r="R17">
-        <v>5</v>
-      </c>
-      <c r="U17">
+      <c r="N17" s="4">
+        <v>5</v>
+      </c>
+      <c r="O17" s="4">
+        <v>5</v>
+      </c>
+      <c r="P17" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>5</v>
+      </c>
+      <c r="R17" s="4">
+        <v>5</v>
+      </c>
+      <c r="U17" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1262,19 +1255,19 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6">
-        <v>5</v>
-      </c>
-      <c r="F18">
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4">
         <v>5</v>
       </c>
       <c r="G18" s="4">
         <v>5</v>
       </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18">
+      <c r="H18" s="4">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4">
         <v>5</v>
       </c>
       <c r="J18" s="4">
@@ -1289,19 +1282,19 @@
       <c r="M18" s="4">
         <v>5</v>
       </c>
-      <c r="N18">
-        <v>5</v>
-      </c>
-      <c r="O18">
-        <v>5</v>
-      </c>
-      <c r="P18">
-        <v>5</v>
-      </c>
-      <c r="Q18">
-        <v>5</v>
-      </c>
-      <c r="R18">
+      <c r="N18" s="4">
+        <v>5</v>
+      </c>
+      <c r="O18" s="4">
+        <v>5</v>
+      </c>
+      <c r="P18" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>5</v>
+      </c>
+      <c r="R18" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1315,10 +1308,10 @@
       <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4">
         <v>5</v>
       </c>
       <c r="J19" s="4">
@@ -1328,16 +1321,16 @@
         <v>5</v>
       </c>
       <c r="L19" s="2"/>
-      <c r="M19" s="6">
-        <v>5</v>
-      </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-      <c r="R19">
+      <c r="M19" s="4">
+        <v>5</v>
+      </c>
+      <c r="P19" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>5</v>
+      </c>
+      <c r="R19" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1351,10 +1344,10 @@
       <c r="C20" s="4">
         <v>5</v>
       </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4">
         <v>5</v>
       </c>
       <c r="H20" s="4">
@@ -1372,7 +1365,7 @@
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>5</v>
       </c>
       <c r="K21" s="2"/>
@@ -1388,7 +1381,7 @@
       <c r="C22" s="4">
         <v>5</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>5</v>
       </c>
       <c r="G22" s="4">
@@ -1409,25 +1402,25 @@
       <c r="M22" s="4">
         <v>5</v>
       </c>
-      <c r="N22">
-        <v>5</v>
-      </c>
-      <c r="O22">
-        <v>5</v>
-      </c>
-      <c r="P22">
-        <v>5</v>
-      </c>
-      <c r="Q22">
-        <v>5</v>
-      </c>
-      <c r="R22">
-        <v>5</v>
-      </c>
-      <c r="T22">
-        <v>5</v>
-      </c>
-      <c r="U22">
+      <c r="N22" s="4">
+        <v>5</v>
+      </c>
+      <c r="O22" s="4">
+        <v>5</v>
+      </c>
+      <c r="P22" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>5</v>
+      </c>
+      <c r="R22" s="4">
+        <v>5</v>
+      </c>
+      <c r="T22" s="4">
+        <v>5</v>
+      </c>
+      <c r="U22" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1438,19 +1431,19 @@
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6">
-        <v>5</v>
-      </c>
-      <c r="F23">
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4">
         <v>5</v>
       </c>
       <c r="G23" s="4">
         <v>5</v>
       </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23">
+      <c r="H23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4">
         <v>5</v>
       </c>
       <c r="J23" s="4">
@@ -1465,19 +1458,19 @@
       <c r="M23" s="4">
         <v>5</v>
       </c>
-      <c r="N23">
-        <v>5</v>
-      </c>
-      <c r="O23">
-        <v>5</v>
-      </c>
-      <c r="P23">
-        <v>5</v>
-      </c>
-      <c r="Q23">
-        <v>5</v>
-      </c>
-      <c r="R23">
+      <c r="N23" s="4">
+        <v>5</v>
+      </c>
+      <c r="O23" s="4">
+        <v>5</v>
+      </c>
+      <c r="P23" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>5</v>
+      </c>
+      <c r="R23" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1488,13 +1481,13 @@
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="6">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
         <v>5</v>
       </c>
       <c r="G24" s="4">
@@ -1503,7 +1496,7 @@
       <c r="H24" s="4">
         <v>5</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>5</v>
       </c>
       <c r="J24" s="4">
@@ -1518,22 +1511,22 @@
       <c r="M24" s="4">
         <v>5</v>
       </c>
-      <c r="N24">
-        <v>5</v>
-      </c>
-      <c r="O24">
-        <v>5</v>
-      </c>
-      <c r="P24">
-        <v>5</v>
-      </c>
-      <c r="Q24">
-        <v>5</v>
-      </c>
-      <c r="R24">
-        <v>5</v>
-      </c>
-      <c r="T24">
+      <c r="N24" s="4">
+        <v>5</v>
+      </c>
+      <c r="O24" s="4">
+        <v>5</v>
+      </c>
+      <c r="P24" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>5</v>
+      </c>
+      <c r="R24" s="4">
+        <v>5</v>
+      </c>
+      <c r="T24" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1544,16 +1537,16 @@
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4">
         <v>5</v>
       </c>
       <c r="G25" s="4">
@@ -1574,25 +1567,25 @@
       <c r="M25" s="4">
         <v>5</v>
       </c>
-      <c r="N25">
-        <v>5</v>
-      </c>
-      <c r="O25">
-        <v>5</v>
-      </c>
-      <c r="P25">
-        <v>5</v>
-      </c>
-      <c r="Q25">
-        <v>5</v>
-      </c>
-      <c r="R25">
-        <v>5</v>
-      </c>
-      <c r="T25">
-        <v>5</v>
-      </c>
-      <c r="U25">
+      <c r="N25" s="4">
+        <v>5</v>
+      </c>
+      <c r="O25" s="4">
+        <v>5</v>
+      </c>
+      <c r="P25" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>5</v>
+      </c>
+      <c r="R25" s="4">
+        <v>5</v>
+      </c>
+      <c r="T25" s="4">
+        <v>5</v>
+      </c>
+      <c r="U25" s="4">
         <v>5</v>
       </c>
     </row>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D13B45-22C4-4CE1-81E8-D37920D99C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF9B500-B762-45B9-A00E-1F464F14051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,19 @@
     <sheet name="Safonova N. N." sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -527,13 +540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U26"/>
+  <dimension ref="A2:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U25" activeCellId="32" sqref="R5 R6 R7 R8 R10 R11 R12 R13 R15 R17 R18 R19 R22 R23 R24 R25 T5 T10 T12 T13 T15 T16 T22 T24 T25 U7 U10 U11 U12 U15 U17 U22 U25"/>
+      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -545,7 +558,7 @@
     <col min="18" max="19" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>36</v>
       </c>
@@ -604,11 +617,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -643,8 +656,15 @@
       <c r="Q4" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V4">
+        <f>SUM(B4:U4)</f>
+        <v>45</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -696,8 +716,15 @@
       <c r="T5" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V5">
+        <f t="shared" ref="V5:V25" si="0">SUM(B5:U5)</f>
+        <v>75</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -738,8 +765,15 @@
       <c r="R6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -791,8 +825,15 @@
       <c r="U7" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -819,8 +860,15 @@
       <c r="R8" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -848,8 +896,15 @@
       <c r="N9" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -907,8 +962,15 @@
       <c r="U10" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -963,8 +1025,15 @@
       <c r="U11" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1022,8 +1091,15 @@
       <c r="U12" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="X12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1072,8 +1148,15 @@
       <c r="T13" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1082,8 +1165,12 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1141,8 +1228,15 @@
       <c r="U15" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1191,8 +1285,15 @@
       <c r="T16" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1247,8 +1348,15 @@
       <c r="U17" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1297,8 +1405,15 @@
       <c r="R18" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="X18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1333,8 +1448,15 @@
       <c r="R19" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1357,8 +1479,15 @@
         <v>5</v>
       </c>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1370,8 +1499,15 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1423,8 +1559,15 @@
       <c r="U22" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="X22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1473,8 +1616,15 @@
       <c r="R23" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="X23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1529,8 +1679,15 @@
       <c r="T24" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="X24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1588,13 +1745,44 @@
       <c r="U25" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="V4:V25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF9B500-B762-45B9-A00E-1F464F14051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D0EFD8-FA30-4607-9138-6DA570BFB777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,7 +180,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +190,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,6 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -543,10 +550,10 @@
   <dimension ref="A2:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
+      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -875,6 +882,12 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
       <c r="G9" s="4">
         <v>5</v>
       </c>
@@ -896,9 +909,26 @@
       <c r="N9" s="4">
         <v>5</v>
       </c>
+      <c r="O9" s="6">
+        <v>5</v>
+      </c>
+      <c r="P9" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>6</v>
+      </c>
+      <c r="R9" s="6">
+        <v>5</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6">
+        <v>5</v>
+      </c>
+      <c r="U9" s="6"/>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="X9">
         <v>3</v>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-120\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D0EFD8-FA30-4607-9138-6DA570BFB777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2756B320-AF25-4AFC-AED3-6C48DB252C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,9 +232,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -243,6 +240,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -550,10 +550,10 @@
   <dimension ref="A2:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -635,34 +635,43 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5</v>
-      </c>
-      <c r="J4" s="4">
-        <v>5</v>
-      </c>
-      <c r="K4" s="5">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="4">
-        <v>5</v>
-      </c>
-      <c r="P4" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>5</v>
-      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="3">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>5</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
       <c r="V4">
         <f>SUM(B4:U4)</f>
         <v>45</v>
@@ -678,51 +687,55 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4">
-        <v>5</v>
-      </c>
-      <c r="K5" s="5">
-        <v>5</v>
-      </c>
-      <c r="L5" s="5">
-        <v>5</v>
-      </c>
-      <c r="M5" s="4">
-        <v>5</v>
-      </c>
-      <c r="N5" s="4">
-        <v>5</v>
-      </c>
-      <c r="O5" s="4">
-        <v>5</v>
-      </c>
-      <c r="P5" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>5</v>
-      </c>
-      <c r="R5" s="4">
-        <v>5</v>
-      </c>
-      <c r="T5" s="4">
-        <v>5</v>
-      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3">
+        <v>5</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>5</v>
+      </c>
+      <c r="R5" s="3">
+        <v>5</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="3">
+        <v>5</v>
+      </c>
+      <c r="U5" s="5"/>
       <c r="V5">
         <f t="shared" ref="V5:V25" si="0">SUM(B5:U5)</f>
         <v>75</v>
@@ -738,40 +751,47 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4">
-        <v>5</v>
-      </c>
-      <c r="J6" s="4">
-        <v>5</v>
-      </c>
-      <c r="K6" s="5">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="4">
-        <v>5</v>
-      </c>
-      <c r="O6" s="4">
-        <v>5</v>
-      </c>
-      <c r="P6" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>5</v>
-      </c>
-      <c r="R6" s="4">
-        <v>5</v>
-      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="3">
+        <v>5</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="3">
+        <v>5</v>
+      </c>
+      <c r="P6" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>5</v>
+      </c>
+      <c r="R6" s="3">
+        <v>5</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
       <c r="V6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -787,49 +807,53 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4">
-        <v>5</v>
-      </c>
-      <c r="J7" s="4">
-        <v>5</v>
-      </c>
-      <c r="K7" s="5">
-        <v>5</v>
-      </c>
-      <c r="L7" s="5">
-        <v>5</v>
-      </c>
-      <c r="M7" s="4">
-        <v>5</v>
-      </c>
-      <c r="O7" s="4">
-        <v>5</v>
-      </c>
-      <c r="P7" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>5</v>
-      </c>
-      <c r="R7" s="4">
-        <v>5</v>
-      </c>
-      <c r="U7" s="4">
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>5</v>
+      </c>
+      <c r="M7" s="3">
+        <v>5</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="3">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>5</v>
+      </c>
+      <c r="R7" s="3">
+        <v>5</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="3">
         <v>5</v>
       </c>
       <c r="V7">
@@ -847,26 +871,37 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="4">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="N8" s="4">
-        <v>5</v>
-      </c>
-      <c r="O8" s="4">
-        <v>5</v>
-      </c>
-      <c r="P8" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>5</v>
-      </c>
-      <c r="R8" s="4">
-        <v>5</v>
-      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="3">
+        <v>5</v>
+      </c>
+      <c r="O8" s="3">
+        <v>5</v>
+      </c>
+      <c r="P8" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>5</v>
+      </c>
+      <c r="R8" s="3">
+        <v>5</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
       <c r="V8">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -882,50 +917,53 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4">
-        <v>5</v>
-      </c>
-      <c r="H9" s="4">
-        <v>5</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5">
-        <v>5</v>
-      </c>
-      <c r="L9" s="5">
-        <v>5</v>
-      </c>
-      <c r="M9" s="4">
-        <v>5</v>
-      </c>
-      <c r="N9" s="4">
-        <v>5</v>
-      </c>
-      <c r="O9" s="6">
-        <v>5</v>
-      </c>
-      <c r="P9" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="6">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="3">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
+        <v>5</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5</v>
+      </c>
+      <c r="P9" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="5">
         <v>6</v>
       </c>
-      <c r="R9" s="6">
-        <v>5</v>
-      </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6">
-        <v>5</v>
-      </c>
-      <c r="U9" s="6"/>
+      <c r="R9" s="5">
+        <v>5</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5">
+        <v>5</v>
+      </c>
+      <c r="U9" s="5"/>
       <c r="V9">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -941,55 +979,57 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4">
-        <v>5</v>
-      </c>
-      <c r="H10" s="4">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4">
-        <v>5</v>
-      </c>
-      <c r="K10" s="5">
-        <v>5</v>
-      </c>
-      <c r="L10" s="5">
-        <v>5</v>
-      </c>
-      <c r="M10" s="4">
-        <v>5</v>
-      </c>
-      <c r="N10" s="4">
-        <v>5</v>
-      </c>
-      <c r="O10" s="4">
-        <v>5</v>
-      </c>
-      <c r="P10" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>5</v>
-      </c>
-      <c r="R10" s="4">
-        <v>5</v>
-      </c>
-      <c r="T10" s="4">
-        <v>5</v>
-      </c>
-      <c r="U10" s="4">
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="3">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
+        <v>5</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="3">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>5</v>
       </c>
       <c r="V10">
@@ -1007,52 +1047,55 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4">
-        <v>5</v>
-      </c>
-      <c r="H11" s="4">
-        <v>5</v>
-      </c>
-      <c r="J11" s="4">
-        <v>5</v>
-      </c>
-      <c r="K11" s="5">
-        <v>5</v>
-      </c>
-      <c r="L11" s="5">
-        <v>5</v>
-      </c>
-      <c r="M11" s="4">
-        <v>5</v>
-      </c>
-      <c r="N11" s="4">
-        <v>5</v>
-      </c>
-      <c r="O11" s="4">
-        <v>5</v>
-      </c>
-      <c r="P11" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>5</v>
-      </c>
-      <c r="R11" s="4">
-        <v>5</v>
-      </c>
-      <c r="U11" s="4">
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="3">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>5</v>
+      </c>
+      <c r="M11" s="3">
+        <v>5</v>
+      </c>
+      <c r="N11" s="3">
+        <v>5</v>
+      </c>
+      <c r="O11" s="3">
+        <v>5</v>
+      </c>
+      <c r="P11" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>5</v>
+      </c>
+      <c r="R11" s="3">
+        <v>5</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="3">
         <v>5</v>
       </c>
       <c r="V11">
@@ -1070,55 +1113,57 @@
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4">
-        <v>5</v>
-      </c>
-      <c r="K12" s="5">
-        <v>5</v>
-      </c>
-      <c r="L12" s="5">
-        <v>5</v>
-      </c>
-      <c r="M12" s="4">
-        <v>5</v>
-      </c>
-      <c r="N12" s="4">
-        <v>5</v>
-      </c>
-      <c r="O12" s="4">
-        <v>5</v>
-      </c>
-      <c r="P12" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>5</v>
-      </c>
-      <c r="R12" s="4">
-        <v>5</v>
-      </c>
-      <c r="T12" s="4">
-        <v>5</v>
-      </c>
-      <c r="U12" s="4">
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="3">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3">
+        <v>5</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="3">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3">
         <v>5</v>
       </c>
       <c r="V12">
@@ -1136,48 +1181,53 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4">
-        <v>5</v>
-      </c>
-      <c r="G13" s="4">
-        <v>5</v>
-      </c>
-      <c r="H13" s="4">
-        <v>5</v>
-      </c>
-      <c r="J13" s="4">
-        <v>5</v>
-      </c>
-      <c r="K13" s="5">
-        <v>5</v>
-      </c>
-      <c r="L13" s="5">
-        <v>5</v>
-      </c>
-      <c r="M13" s="4">
-        <v>5</v>
-      </c>
-      <c r="N13" s="4">
-        <v>5</v>
-      </c>
-      <c r="O13" s="4">
-        <v>5</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>5</v>
-      </c>
-      <c r="R13" s="4">
-        <v>5</v>
-      </c>
-      <c r="T13" s="4">
-        <v>5</v>
-      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="3">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>5</v>
+      </c>
+      <c r="M13" s="3">
+        <v>5</v>
+      </c>
+      <c r="N13" s="3">
+        <v>5</v>
+      </c>
+      <c r="O13" s="3">
+        <v>5</v>
+      </c>
+      <c r="P13" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>5</v>
+      </c>
+      <c r="R13" s="3">
+        <v>5</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="3">
+        <v>5</v>
+      </c>
+      <c r="U13" s="5"/>
       <c r="V13">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -1193,11 +1243,48 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
+        <v>5</v>
+      </c>
+      <c r="K14" s="6">
+        <v>5</v>
+      </c>
+      <c r="L14" s="6">
+        <v>5</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <v>5</v>
+      </c>
+      <c r="O14" s="5">
+        <v>5</v>
+      </c>
+      <c r="P14" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>5</v>
+      </c>
+      <c r="R14" s="5">
+        <v>5</v>
+      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5">
+        <v>5</v>
+      </c>
+      <c r="U14" s="5"/>
       <c r="V14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1207,55 +1294,57 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4">
-        <v>5</v>
-      </c>
-      <c r="K15" s="5">
-        <v>5</v>
-      </c>
-      <c r="L15" s="5">
-        <v>5</v>
-      </c>
-      <c r="M15" s="4">
-        <v>5</v>
-      </c>
-      <c r="N15" s="4">
-        <v>5</v>
-      </c>
-      <c r="O15" s="4">
-        <v>5</v>
-      </c>
-      <c r="P15" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>5</v>
-      </c>
-      <c r="R15" s="4">
-        <v>5</v>
-      </c>
-      <c r="T15" s="4">
-        <v>5</v>
-      </c>
-      <c r="U15" s="4">
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="3">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
+        <v>5</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="3">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>5</v>
       </c>
       <c r="V15">
@@ -1273,48 +1362,53 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4">
-        <v>5</v>
-      </c>
-      <c r="H16" s="4">
-        <v>5</v>
-      </c>
-      <c r="J16" s="4">
-        <v>5</v>
-      </c>
-      <c r="K16" s="5">
-        <v>5</v>
-      </c>
-      <c r="L16" s="5">
-        <v>5</v>
-      </c>
-      <c r="M16" s="4">
-        <v>5</v>
-      </c>
-      <c r="N16" s="4">
-        <v>5</v>
-      </c>
-      <c r="O16" s="4">
-        <v>5</v>
-      </c>
-      <c r="P16" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>5</v>
-      </c>
-      <c r="T16" s="4">
-        <v>5</v>
-      </c>
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="3">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>5</v>
+      </c>
+      <c r="N16" s="3">
+        <v>5</v>
+      </c>
+      <c r="O16" s="3">
+        <v>5</v>
+      </c>
+      <c r="P16" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>5</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="3">
+        <v>5</v>
+      </c>
+      <c r="U16" s="5"/>
       <c r="V16">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -1330,52 +1424,55 @@
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4">
-        <v>5</v>
-      </c>
-      <c r="H17" s="4">
-        <v>5</v>
-      </c>
-      <c r="J17" s="4">
-        <v>5</v>
-      </c>
-      <c r="K17" s="5">
-        <v>5</v>
-      </c>
-      <c r="L17" s="5">
-        <v>5</v>
-      </c>
-      <c r="M17" s="4">
-        <v>5</v>
-      </c>
-      <c r="N17" s="4">
-        <v>5</v>
-      </c>
-      <c r="O17" s="4">
-        <v>5</v>
-      </c>
-      <c r="P17" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>5</v>
-      </c>
-      <c r="R17" s="4">
-        <v>5</v>
-      </c>
-      <c r="U17" s="4">
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
+        <v>5</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="3">
         <v>5</v>
       </c>
       <c r="V17">
@@ -1393,48 +1490,53 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4">
-        <v>5</v>
-      </c>
-      <c r="H18" s="4">
-        <v>5</v>
-      </c>
-      <c r="I18" s="4">
-        <v>5</v>
-      </c>
-      <c r="J18" s="4">
-        <v>5</v>
-      </c>
-      <c r="K18" s="5">
-        <v>5</v>
-      </c>
-      <c r="L18" s="5">
-        <v>5</v>
-      </c>
-      <c r="M18" s="4">
-        <v>5</v>
-      </c>
-      <c r="N18" s="4">
-        <v>5</v>
-      </c>
-      <c r="O18" s="4">
-        <v>5</v>
-      </c>
-      <c r="P18" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>5</v>
-      </c>
-      <c r="R18" s="4">
-        <v>5</v>
-      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
+        <v>5</v>
+      </c>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
       <c r="V18">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -1450,34 +1552,43 @@
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4">
-        <v>5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4">
-        <v>5</v>
-      </c>
-      <c r="K19" s="5">
-        <v>5</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="4">
-        <v>5</v>
-      </c>
-      <c r="P19" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>5</v>
-      </c>
-      <c r="R19" s="4">
-        <v>5</v>
-      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4">
+        <v>5</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="3">
+        <v>5</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>5</v>
+      </c>
+      <c r="R19" s="3">
+        <v>5</v>
+      </c>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="V19">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1493,22 +1604,35 @@
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4">
-        <v>5</v>
-      </c>
-      <c r="E20" s="4">
-        <v>5</v>
-      </c>
-      <c r="F20" s="4">
-        <v>5</v>
-      </c>
-      <c r="H20" s="4">
-        <v>5</v>
-      </c>
-      <c r="K20" s="5">
-        <v>5</v>
-      </c>
-      <c r="L20" s="2"/>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
       <c r="V20">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1524,11 +1648,27 @@
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="4">
-        <v>5</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
       <c r="V21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1544,49 +1684,53 @@
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="4">
-        <v>5</v>
-      </c>
-      <c r="F22" s="4">
-        <v>5</v>
-      </c>
-      <c r="G22" s="4">
-        <v>5</v>
-      </c>
-      <c r="H22" s="4">
-        <v>5</v>
-      </c>
-      <c r="J22" s="4">
-        <v>5</v>
-      </c>
-      <c r="K22" s="5">
-        <v>5</v>
-      </c>
-      <c r="L22" s="5">
-        <v>5</v>
-      </c>
-      <c r="M22" s="4">
-        <v>5</v>
-      </c>
-      <c r="N22" s="4">
-        <v>5</v>
-      </c>
-      <c r="O22" s="4">
-        <v>5</v>
-      </c>
-      <c r="P22" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>5</v>
-      </c>
-      <c r="R22" s="4">
-        <v>5</v>
-      </c>
-      <c r="T22" s="4">
-        <v>5</v>
-      </c>
-      <c r="U22" s="4">
+      <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="3">
+        <v>5</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
+        <v>5</v>
+      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="3">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>5</v>
       </c>
       <c r="V22">
@@ -1604,48 +1748,53 @@
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="4">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4">
-        <v>5</v>
-      </c>
-      <c r="G23" s="4">
-        <v>5</v>
-      </c>
-      <c r="H23" s="4">
-        <v>5</v>
-      </c>
-      <c r="I23" s="4">
-        <v>5</v>
-      </c>
-      <c r="J23" s="4">
-        <v>5</v>
-      </c>
-      <c r="K23" s="5">
-        <v>5</v>
-      </c>
-      <c r="L23" s="5">
-        <v>5</v>
-      </c>
-      <c r="M23" s="4">
-        <v>5</v>
-      </c>
-      <c r="N23" s="4">
-        <v>5</v>
-      </c>
-      <c r="O23" s="4">
-        <v>5</v>
-      </c>
-      <c r="P23" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>5</v>
-      </c>
-      <c r="R23" s="4">
-        <v>5</v>
-      </c>
+      <c r="C23" s="3">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
+        <v>5</v>
+      </c>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
       <c r="V23">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -1661,54 +1810,57 @@
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4">
-        <v>5</v>
-      </c>
-      <c r="E24" s="4">
-        <v>5</v>
-      </c>
-      <c r="G24" s="4">
-        <v>5</v>
-      </c>
-      <c r="H24" s="4">
-        <v>5</v>
-      </c>
-      <c r="I24" s="4">
-        <v>5</v>
-      </c>
-      <c r="J24" s="4">
-        <v>5</v>
-      </c>
-      <c r="K24" s="5">
-        <v>5</v>
-      </c>
-      <c r="L24" s="5">
-        <v>5</v>
-      </c>
-      <c r="M24" s="4">
-        <v>5</v>
-      </c>
-      <c r="N24" s="4">
-        <v>5</v>
-      </c>
-      <c r="O24" s="4">
-        <v>5</v>
-      </c>
-      <c r="P24" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>5</v>
-      </c>
-      <c r="R24" s="4">
-        <v>5</v>
-      </c>
-      <c r="T24" s="4">
-        <v>5</v>
-      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
+        <v>5</v>
+      </c>
+      <c r="S24" s="5"/>
+      <c r="T24" s="3">
+        <v>5</v>
+      </c>
+      <c r="U24" s="5"/>
       <c r="V24">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -1724,55 +1876,57 @@
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="4">
-        <v>5</v>
-      </c>
-      <c r="D25" s="4">
-        <v>5</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4">
-        <v>5</v>
-      </c>
-      <c r="G25" s="4">
-        <v>5</v>
-      </c>
-      <c r="H25" s="4">
-        <v>5</v>
-      </c>
-      <c r="J25" s="4">
-        <v>5</v>
-      </c>
-      <c r="K25" s="5">
-        <v>5</v>
-      </c>
-      <c r="L25" s="5">
-        <v>5</v>
-      </c>
-      <c r="M25" s="4">
-        <v>5</v>
-      </c>
-      <c r="N25" s="4">
-        <v>5</v>
-      </c>
-      <c r="O25" s="4">
-        <v>5</v>
-      </c>
-      <c r="P25" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>5</v>
-      </c>
-      <c r="R25" s="4">
-        <v>5</v>
-      </c>
-      <c r="T25" s="4">
-        <v>5</v>
-      </c>
-      <c r="U25" s="4">
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="3">
+        <v>5</v>
+      </c>
+      <c r="K25" s="4">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4">
+        <v>5</v>
+      </c>
+      <c r="M25" s="3">
+        <v>5</v>
+      </c>
+      <c r="N25" s="3">
+        <v>5</v>
+      </c>
+      <c r="O25" s="3">
+        <v>5</v>
+      </c>
+      <c r="P25" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>5</v>
+      </c>
+      <c r="R25" s="3">
+        <v>5</v>
+      </c>
+      <c r="S25" s="5"/>
+      <c r="T25" s="3">
+        <v>5</v>
+      </c>
+      <c r="U25" s="3">
         <v>5</v>
       </c>
       <c r="V25">
@@ -1784,8 +1938,8 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="13" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2756B320-AF25-4AFC-AED3-6C48DB252C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E092CAC-FDE4-4BEC-8551-361DDC29EFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1244,8 +1244,12 @@
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
         <v>5</v>
@@ -1284,7 +1288,7 @@
       <c r="U14" s="5"/>
       <c r="V14">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E092CAC-FDE4-4BEC-8551-361DDC29EFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7049BB3-FCC3-45A4-97AC-640AFFF6EF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,9 @@
       <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3">
         <v>5</v>
@@ -656,11 +658,15 @@
       <c r="K4" s="4">
         <v>5</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
       <c r="M4" s="3">
         <v>5</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
       <c r="O4" s="5"/>
       <c r="P4" s="3">
         <v>5</v>
@@ -696,7 +702,9 @@
       <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
@@ -772,11 +780,15 @@
       <c r="K6" s="4">
         <v>5</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
       <c r="M6" s="3">
         <v>5</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
       <c r="O6" s="3">
         <v>5</v>
       </c>
@@ -838,7 +850,9 @@
       <c r="M7" s="3">
         <v>5</v>
       </c>
-      <c r="N7" s="5"/>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
       <c r="O7" s="3">
         <v>5</v>
       </c>
@@ -874,15 +888,21 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
       <c r="I8" s="3">
         <v>5</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="3">
         <v>5</v>
@@ -924,7 +944,9 @@
       <c r="E9" s="5">
         <v>5</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
@@ -1250,11 +1272,15 @@
       <c r="E14" s="5">
         <v>5</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
       <c r="G14" s="5">
         <v>5</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5">
         <v>5</v>
@@ -1375,7 +1401,9 @@
       <c r="E16" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
       <c r="G16" s="3">
         <v>5</v>
       </c>
@@ -1565,9 +1593,13 @@
       <c r="E19" s="3">
         <v>5</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="3">
         <v>5</v>
@@ -1575,11 +1607,15 @@
       <c r="K19" s="4">
         <v>5</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
       <c r="M19" s="3">
         <v>5</v>
       </c>
-      <c r="N19" s="5"/>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
       <c r="O19" s="5"/>
       <c r="P19" s="3">
         <v>5</v>
@@ -1627,9 +1663,13 @@
       <c r="K20" s="4">
         <v>5</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -1659,13 +1699,19 @@
         <v>5</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
       <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -1823,7 +1869,9 @@
       <c r="E24" s="3">
         <v>5</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
       <c r="G24" s="3">
         <v>5</v>
       </c>

--- a/3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/3ПКС-120/3ПКС-120_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7049BB3-FCC3-45A4-97AC-640AFFF6EF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29492A44-03F1-4485-954A-0E2DB852AAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4:N25"/>
+      <selection pane="bottomRight" activeCell="T9" activeCellId="1" sqref="O9:R9 T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -938,10 +938,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
         <v>5</v>
       </c>
       <c r="F9" s="5">
@@ -969,20 +969,20 @@
       <c r="N9" s="3">
         <v>5</v>
       </c>
-      <c r="O9" s="5">
-        <v>5</v>
-      </c>
-      <c r="P9" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="5">
+      <c r="O9" s="3">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>6</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="3">
         <v>5</v>
       </c>
       <c r="S9" s="5"/>
-      <c r="T9" s="5">
+      <c r="T9" s="3">
         <v>5</v>
       </c>
       <c r="U9" s="5"/>
@@ -1266,49 +1266,49 @@
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
         <v>5</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>5</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="5">
-        <v>5</v>
-      </c>
-      <c r="K14" s="6">
-        <v>5</v>
-      </c>
-      <c r="L14" s="6">
+      <c r="J14" s="3">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
         <v>5</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="5">
-        <v>5</v>
-      </c>
-      <c r="O14" s="5">
-        <v>5</v>
-      </c>
-      <c r="P14" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>5</v>
-      </c>
-      <c r="R14" s="5">
+      <c r="N14" s="3">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>5</v>
       </c>
       <c r="S14" s="5"/>
-      <c r="T14" s="5">
+      <c r="T14" s="3">
         <v>5</v>
       </c>
       <c r="U14" s="5"/>
